--- a/static/download/2013/RP1_SAF_Just_Culture_2013.xlsx
+++ b/static/download/2013/RP1_SAF_Just_Culture_2013.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="JC_2013" sheetId="1" r:id="rId3"/>
@@ -26,7 +26,7 @@
     <t>Meta data</t>
   </si>
   <si>
-    <t>Reporting of Just Culture</t>
+    <t>Metadata - Single European Sky Portal</t>
   </si>
   <si>
     <t>Last Update</t>
@@ -44,7 +44,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>STATE</t>
@@ -323,8 +323,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -395,7 +395,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -470,121 +471,142 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="6" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -593,43 +615,46 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.29"/>
-    <col customWidth="1" min="2" max="2" width="10.29"/>
-    <col customWidth="1" min="3" max="3" width="4.29"/>
-    <col customWidth="1" min="4" max="4" width="1.71"/>
-    <col customWidth="1" min="5" max="5" width="14.14"/>
-    <col customWidth="1" min="6" max="6" width="10.57"/>
-    <col customWidth="1" min="7" max="7" width="4.29"/>
-    <col customWidth="1" min="8" max="8" width="1.86"/>
-    <col customWidth="1" min="9" max="9" width="28.0"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="4.57"/>
-    <col customWidth="1" min="12" max="12" width="1.86"/>
-    <col customWidth="1" min="13" max="13" width="15.14"/>
-    <col customWidth="1" min="14" max="14" width="10.0"/>
-    <col customWidth="1" min="15" max="15" width="4.29"/>
-    <col customWidth="1" min="16" max="16" width="1.86"/>
-    <col customWidth="1" min="17" max="17" width="18.57"/>
-    <col customWidth="1" min="18" max="18" width="5.29"/>
-    <col customWidth="1" min="19" max="19" width="4.29"/>
+    <col customWidth="1" min="1" max="1" width="35.25"/>
+    <col customWidth="1" min="2" max="2" width="9.0"/>
+    <col customWidth="1" min="3" max="3" width="3.75"/>
+    <col customWidth="1" min="4" max="4" width="1.5"/>
+    <col customWidth="1" min="5" max="5" width="12.38"/>
+    <col customWidth="1" min="6" max="6" width="9.25"/>
+    <col customWidth="1" min="7" max="7" width="3.75"/>
+    <col customWidth="1" min="8" max="8" width="1.63"/>
+    <col customWidth="1" min="9" max="9" width="24.5"/>
+    <col customWidth="1" min="10" max="10" width="4.75"/>
+    <col customWidth="1" min="11" max="11" width="4.0"/>
+    <col customWidth="1" min="12" max="12" width="1.63"/>
+    <col customWidth="1" min="13" max="13" width="13.25"/>
+    <col customWidth="1" min="14" max="14" width="8.75"/>
+    <col customWidth="1" min="15" max="15" width="3.75"/>
+    <col customWidth="1" min="16" max="16" width="1.63"/>
+    <col customWidth="1" min="17" max="17" width="16.25"/>
+    <col customWidth="1" min="18" max="18" width="4.63"/>
+    <col customWidth="1" min="19" max="19" width="3.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -904,57 +929,57 @@
       <c r="A9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="28" t="str">
+      <c r="B9" s="23">
         <f t="shared" ref="B9:C9" si="1">(B6+B7)+B8</f>
         <v>13</v>
       </c>
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="28" t="str">
+      <c r="E9" s="28"/>
+      <c r="F9" s="23">
         <f t="shared" ref="F9:G9" si="2">(F6+F7)+F8</f>
         <v>22</v>
       </c>
-      <c r="G9" s="28" t="str">
+      <c r="G9" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="29"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="24"/>
-      <c r="Q9" s="29"/>
+      <c r="Q9" s="28"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
     </row>
     <row r="10" ht="6.0" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -1104,26 +1129,26 @@
       <c r="A15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="28" t="str">
+      <c r="B15" s="23">
         <f t="shared" ref="B15:C15" si="3">(B12+B13)+B14</f>
         <v>8</v>
       </c>
-      <c r="C15" s="28" t="str">
+      <c r="C15" s="23">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28" t="str">
+      <c r="E15" s="28"/>
+      <c r="F15" s="23">
         <f t="shared" ref="F15:G15" si="4">(F12+F13)+F14</f>
         <v>16</v>
       </c>
-      <c r="G15" s="28" t="str">
+      <c r="G15" s="23">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H15" s="24"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="27">
         <v>13.0</v>
       </c>
@@ -1131,34 +1156,34 @@
         <v>11.0</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="29"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="29"/>
+      <c r="Q15" s="28"/>
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
     </row>
     <row r="16" ht="6.0" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="22" t="s">
@@ -1290,57 +1315,57 @@
       <c r="A21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="28" t="str">
+      <c r="B21" s="23">
         <f t="shared" ref="B21:C21" si="5">(B18+B19)+B20</f>
         <v>10</v>
       </c>
-      <c r="C21" s="28" t="str">
+      <c r="C21" s="23">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="28" t="str">
+      <c r="E21" s="28"/>
+      <c r="F21" s="23">
         <f t="shared" ref="F21:G21" si="6">(F18+F19)+F20</f>
         <v>18</v>
       </c>
-      <c r="G21" s="28" t="str">
+      <c r="G21" s="23">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="I21" s="29"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="29"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="29"/>
+      <c r="Q21" s="28"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
     </row>
     <row r="22" ht="6.0" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="22" t="s">
@@ -1472,57 +1497,57 @@
       <c r="A27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="28" t="str">
+      <c r="B27" s="23">
         <f t="shared" ref="B27:C27" si="7">(B24+B25)+B26</f>
         <v>19</v>
       </c>
-      <c r="C27" s="28" t="str">
+      <c r="C27" s="23">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D27" s="24"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="28" t="str">
+      <c r="E27" s="28"/>
+      <c r="F27" s="23">
         <f t="shared" ref="F27:G27" si="8">(F24+F25)+F26</f>
         <v>19</v>
       </c>
-      <c r="G27" s="28" t="str">
+      <c r="G27" s="23">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H27" s="24"/>
-      <c r="I27" s="29"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
-      <c r="M27" s="29"/>
+      <c r="M27" s="28"/>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" s="24"/>
-      <c r="Q27" s="29"/>
+      <c r="Q27" s="28"/>
       <c r="R27" s="23"/>
       <c r="S27" s="23"/>
     </row>
     <row r="28" ht="6.0" customHeight="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="22" t="s">
@@ -1654,57 +1679,57 @@
       <c r="A33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="28" t="str">
+      <c r="B33" s="23">
         <f t="shared" ref="B33:C33" si="9">(B30+B31)+B32</f>
         <v>11</v>
       </c>
-      <c r="C33" s="28" t="str">
+      <c r="C33" s="23">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="D33" s="24"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="28" t="str">
+      <c r="E33" s="28"/>
+      <c r="F33" s="23">
         <f t="shared" ref="F33:G33" si="10">(F30+F31)+F32</f>
         <v>19</v>
       </c>
-      <c r="G33" s="28" t="str">
+      <c r="G33" s="23">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H33" s="24"/>
-      <c r="I33" s="29"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
-      <c r="M33" s="29"/>
+      <c r="M33" s="28"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
       <c r="P33" s="24"/>
-      <c r="Q33" s="29"/>
+      <c r="Q33" s="28"/>
       <c r="R33" s="23"/>
       <c r="S33" s="23"/>
     </row>
     <row r="34" ht="6.0" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="22" t="s">
@@ -1836,57 +1861,57 @@
       <c r="A39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="28" t="str">
+      <c r="B39" s="23">
         <f t="shared" ref="B39:C39" si="11">(B36+B37)+B38</f>
         <v>12</v>
       </c>
-      <c r="C39" s="28" t="str">
+      <c r="C39" s="23">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="D39" s="24"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="28" t="str">
+      <c r="E39" s="28"/>
+      <c r="F39" s="23">
         <f t="shared" ref="F39:G39" si="12">(F36+F37)+F38</f>
         <v>17</v>
       </c>
-      <c r="G39" s="28" t="str">
+      <c r="G39" s="23">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="H39" s="24"/>
-      <c r="I39" s="29"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
-      <c r="M39" s="29"/>
+      <c r="M39" s="28"/>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
       <c r="P39" s="24"/>
-      <c r="Q39" s="29"/>
+      <c r="Q39" s="28"/>
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
     </row>
     <row r="40" ht="6.0" customHeight="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="22" t="s">
@@ -2018,57 +2043,57 @@
       <c r="A45" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="28" t="str">
+      <c r="B45" s="23">
         <f t="shared" ref="B45:C45" si="13">(B42+B43)+B44</f>
         <v>4</v>
       </c>
-      <c r="C45" s="28" t="str">
+      <c r="C45" s="23">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="D45" s="24"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="28" t="str">
+      <c r="E45" s="28"/>
+      <c r="F45" s="23">
         <f t="shared" ref="F45:G45" si="14">(F42+F43)+F44</f>
         <v>21</v>
       </c>
-      <c r="G45" s="28" t="str">
+      <c r="G45" s="23">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H45" s="24"/>
-      <c r="I45" s="29"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="24"/>
-      <c r="M45" s="29"/>
+      <c r="M45" s="28"/>
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
       <c r="P45" s="24"/>
-      <c r="Q45" s="29"/>
+      <c r="Q45" s="28"/>
       <c r="R45" s="23"/>
       <c r="S45" s="23"/>
     </row>
     <row r="46" ht="6.0" customHeight="1">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="22" t="s">
@@ -2200,57 +2225,57 @@
       <c r="A51" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="28" t="str">
+      <c r="B51" s="23">
         <f t="shared" ref="B51:C51" si="15">(B48+B49)+B50</f>
         <v>15</v>
       </c>
-      <c r="C51" s="28" t="str">
+      <c r="C51" s="23">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D51" s="24"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="28" t="str">
+      <c r="E51" s="28"/>
+      <c r="F51" s="23">
         <f t="shared" ref="F51:G51" si="16">(F48+F49)+F50</f>
         <v>15</v>
       </c>
-      <c r="G51" s="28" t="str">
+      <c r="G51" s="23">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="H51" s="24"/>
-      <c r="I51" s="29"/>
+      <c r="I51" s="28"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="24"/>
-      <c r="M51" s="29"/>
+      <c r="M51" s="28"/>
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
       <c r="P51" s="24"/>
-      <c r="Q51" s="29"/>
+      <c r="Q51" s="28"/>
       <c r="R51" s="23"/>
       <c r="S51" s="23"/>
     </row>
     <row r="52" ht="6.0" customHeight="1">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="22" t="s">
@@ -2382,57 +2407,57 @@
       <c r="A57" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="28" t="str">
+      <c r="B57" s="23">
         <f t="shared" ref="B57:C57" si="17">(B54+B55)+B56</f>
         <v>12</v>
       </c>
-      <c r="C57" s="28" t="str">
+      <c r="C57" s="23">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D57" s="24"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="28" t="str">
+      <c r="E57" s="28"/>
+      <c r="F57" s="23">
         <f t="shared" ref="F57:G57" si="18">(F54+F55)+F56</f>
         <v>22</v>
       </c>
-      <c r="G57" s="28" t="str">
+      <c r="G57" s="23">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="H57" s="24"/>
-      <c r="I57" s="29"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="24"/>
-      <c r="M57" s="29"/>
+      <c r="M57" s="28"/>
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
       <c r="P57" s="24"/>
-      <c r="Q57" s="29"/>
+      <c r="Q57" s="28"/>
       <c r="R57" s="23"/>
       <c r="S57" s="23"/>
     </row>
     <row r="58" ht="6.0" customHeight="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="22" t="s">
@@ -2582,26 +2607,26 @@
       <c r="A63" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="28" t="str">
+      <c r="B63" s="23">
         <f t="shared" ref="B63:C63" si="19">(B60+B61)+B62</f>
         <v>8</v>
       </c>
-      <c r="C63" s="28" t="str">
+      <c r="C63" s="23">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="D63" s="24"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="28" t="str">
+      <c r="E63" s="28"/>
+      <c r="F63" s="23">
         <f t="shared" ref="F63:G63" si="20">(F60+F61)+F62</f>
         <v>19</v>
       </c>
-      <c r="G63" s="28" t="str">
+      <c r="G63" s="23">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="H63" s="24"/>
-      <c r="I63" s="29"/>
+      <c r="I63" s="28"/>
       <c r="J63" s="27">
         <v>13.0</v>
       </c>
@@ -2609,34 +2634,34 @@
         <v>11.0</v>
       </c>
       <c r="L63" s="24"/>
-      <c r="M63" s="29"/>
+      <c r="M63" s="28"/>
       <c r="N63" s="23"/>
       <c r="O63" s="23"/>
       <c r="P63" s="24"/>
-      <c r="Q63" s="29"/>
+      <c r="Q63" s="28"/>
       <c r="R63" s="23"/>
       <c r="S63" s="23"/>
     </row>
     <row r="64" ht="6.0" customHeight="1">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="22" t="s">
@@ -2768,57 +2793,57 @@
       <c r="A69" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="28" t="str">
+      <c r="B69" s="23">
         <f t="shared" ref="B69:C69" si="21">(B66+B67)+B68</f>
         <v>13</v>
       </c>
-      <c r="C69" s="28" t="str">
+      <c r="C69" s="23">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D69" s="24"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="28" t="str">
+      <c r="E69" s="28"/>
+      <c r="F69" s="23">
         <f t="shared" ref="F69:G69" si="22">(F66+F67)+F68</f>
         <v>14</v>
       </c>
-      <c r="G69" s="28" t="str">
+      <c r="G69" s="23">
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="H69" s="24"/>
-      <c r="I69" s="29"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="24"/>
-      <c r="M69" s="29"/>
+      <c r="M69" s="28"/>
       <c r="N69" s="23"/>
       <c r="O69" s="23"/>
       <c r="P69" s="24"/>
-      <c r="Q69" s="29"/>
+      <c r="Q69" s="28"/>
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
     </row>
     <row r="70" ht="6.0" customHeight="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="33"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="22" t="s">
@@ -2968,63 +2993,63 @@
       <c r="A75" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="28" t="str">
+      <c r="B75" s="23">
         <f t="shared" ref="B75:C75" si="23">(B72+B73)+B74</f>
         <v>6</v>
       </c>
-      <c r="C75" s="28" t="str">
+      <c r="C75" s="23">
         <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="D75" s="24"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="28" t="str">
+      <c r="E75" s="28"/>
+      <c r="F75" s="23">
         <f t="shared" ref="F75:G75" si="24">(F72+F73)+F74</f>
         <v>20</v>
       </c>
-      <c r="G75" s="28" t="str">
+      <c r="G75" s="23">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="H75" s="24"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="28" t="str">
+      <c r="I75" s="28"/>
+      <c r="J75" s="23">
         <f t="shared" ref="J75:K75" si="25">(J72+J73)+J74</f>
         <v>9</v>
       </c>
-      <c r="K75" s="28" t="str">
+      <c r="K75" s="23">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="L75" s="24"/>
-      <c r="M75" s="29"/>
+      <c r="M75" s="28"/>
       <c r="N75" s="23"/>
       <c r="O75" s="23"/>
       <c r="P75" s="24"/>
-      <c r="Q75" s="29"/>
+      <c r="Q75" s="28"/>
       <c r="R75" s="23"/>
       <c r="S75" s="23"/>
     </row>
     <row r="76" ht="6.0" customHeight="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="22" t="s">
@@ -3156,57 +3181,57 @@
       <c r="A81" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="28" t="str">
+      <c r="B81" s="23">
         <f t="shared" ref="B81:C81" si="26">(B78+B79)+B80</f>
         <v>19</v>
       </c>
-      <c r="C81" s="28" t="str">
+      <c r="C81" s="23">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="D81" s="24"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="28" t="str">
+      <c r="E81" s="28"/>
+      <c r="F81" s="23">
         <f t="shared" ref="F81:G81" si="27">(F78+F79)+F80</f>
         <v>20</v>
       </c>
-      <c r="G81" s="28" t="str">
+      <c r="G81" s="23">
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="H81" s="24"/>
-      <c r="I81" s="29"/>
+      <c r="I81" s="28"/>
       <c r="J81" s="23"/>
       <c r="K81" s="23"/>
       <c r="L81" s="24"/>
-      <c r="M81" s="29"/>
+      <c r="M81" s="28"/>
       <c r="N81" s="23"/>
       <c r="O81" s="23"/>
       <c r="P81" s="24"/>
-      <c r="Q81" s="29"/>
+      <c r="Q81" s="28"/>
       <c r="R81" s="23"/>
       <c r="S81" s="23"/>
     </row>
     <row r="82" ht="6.0" customHeight="1">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="33"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="22" t="s">
@@ -3338,57 +3363,57 @@
       <c r="A87" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="28" t="str">
+      <c r="B87" s="23">
         <f t="shared" ref="B87:C87" si="28">(B84+B85)+B86</f>
         <v>7</v>
       </c>
-      <c r="C87" s="28" t="str">
+      <c r="C87" s="23">
         <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="D87" s="24"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="28" t="str">
+      <c r="E87" s="28"/>
+      <c r="F87" s="23">
         <f t="shared" ref="F87:G87" si="29">(F84+F85)+F86</f>
         <v>21</v>
       </c>
-      <c r="G87" s="28" t="str">
+      <c r="G87" s="23">
         <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="H87" s="24"/>
-      <c r="I87" s="29"/>
+      <c r="I87" s="28"/>
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
       <c r="L87" s="24"/>
-      <c r="M87" s="29"/>
+      <c r="M87" s="28"/>
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
       <c r="P87" s="24"/>
-      <c r="Q87" s="29"/>
+      <c r="Q87" s="28"/>
       <c r="R87" s="23"/>
       <c r="S87" s="23"/>
     </row>
     <row r="88" ht="6.0" customHeight="1">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="A89" s="22" t="s">
@@ -3520,57 +3545,57 @@
       <c r="A93" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B93" s="28" t="str">
+      <c r="B93" s="23">
         <f t="shared" ref="B93:C93" si="30">(B90+B91)+B92</f>
         <v>7</v>
       </c>
-      <c r="C93" s="28" t="str">
+      <c r="C93" s="23">
         <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="D93" s="24"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="28" t="str">
+      <c r="E93" s="28"/>
+      <c r="F93" s="23">
         <f t="shared" ref="F93:G93" si="31">(F90+F91)+F92</f>
         <v>18</v>
       </c>
-      <c r="G93" s="28" t="str">
+      <c r="G93" s="23">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="H93" s="24"/>
-      <c r="I93" s="29"/>
+      <c r="I93" s="28"/>
       <c r="J93" s="23"/>
       <c r="K93" s="23"/>
       <c r="L93" s="24"/>
-      <c r="M93" s="29"/>
+      <c r="M93" s="28"/>
       <c r="N93" s="23"/>
       <c r="O93" s="23"/>
       <c r="P93" s="24"/>
-      <c r="Q93" s="29"/>
+      <c r="Q93" s="28"/>
       <c r="R93" s="23"/>
       <c r="S93" s="23"/>
     </row>
     <row r="94" ht="6.0" customHeight="1">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="30"/>
-      <c r="O94" s="30"/>
-      <c r="P94" s="31"/>
-      <c r="Q94" s="33"/>
-      <c r="R94" s="30"/>
-      <c r="S94" s="30"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="30"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
     </row>
     <row r="95" ht="12.0" customHeight="1">
       <c r="A95" s="22" t="s">
@@ -3702,57 +3727,57 @@
       <c r="A99" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B99" s="28" t="str">
+      <c r="B99" s="23">
         <f t="shared" ref="B99:C99" si="32">(B96+B97)+B98</f>
         <v>15</v>
       </c>
-      <c r="C99" s="28" t="str">
+      <c r="C99" s="23">
         <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="D99" s="24"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="28" t="str">
+      <c r="E99" s="28"/>
+      <c r="F99" s="23">
         <f t="shared" ref="F99:G99" si="33">(F96+F97)+F98</f>
         <v>22</v>
       </c>
-      <c r="G99" s="28" t="str">
+      <c r="G99" s="23">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="H99" s="24"/>
-      <c r="I99" s="29"/>
+      <c r="I99" s="28"/>
       <c r="J99" s="23"/>
       <c r="K99" s="23"/>
       <c r="L99" s="24"/>
-      <c r="M99" s="29"/>
+      <c r="M99" s="28"/>
       <c r="N99" s="23"/>
       <c r="O99" s="23"/>
       <c r="P99" s="24"/>
-      <c r="Q99" s="29"/>
+      <c r="Q99" s="28"/>
       <c r="R99" s="23"/>
       <c r="S99" s="23"/>
     </row>
     <row r="100" ht="6.0" customHeight="1">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="31"/>
-      <c r="Q100" s="33"/>
-      <c r="R100" s="30"/>
-      <c r="S100" s="30"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="32"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
     </row>
     <row r="101" ht="12.0" customHeight="1">
       <c r="A101" s="22" t="s">
@@ -3902,26 +3927,26 @@
       <c r="A105" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="28" t="str">
+      <c r="B105" s="23">
         <f t="shared" ref="B105:C105" si="34">(B102+B103)+B104</f>
         <v>4</v>
       </c>
-      <c r="C105" s="28" t="str">
+      <c r="C105" s="23">
         <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="D105" s="24"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="28" t="str">
+      <c r="E105" s="28"/>
+      <c r="F105" s="23">
         <f t="shared" ref="F105:G105" si="35">(F102+F103)+F104</f>
         <v>15</v>
       </c>
-      <c r="G105" s="28" t="str">
+      <c r="G105" s="23">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="H105" s="24"/>
-      <c r="I105" s="29"/>
+      <c r="I105" s="28"/>
       <c r="J105" s="27">
         <v>13.0</v>
       </c>
@@ -3929,34 +3954,34 @@
         <v>11.0</v>
       </c>
       <c r="L105" s="24"/>
-      <c r="M105" s="29"/>
+      <c r="M105" s="28"/>
       <c r="N105" s="23"/>
       <c r="O105" s="23"/>
       <c r="P105" s="24"/>
-      <c r="Q105" s="29"/>
+      <c r="Q105" s="28"/>
       <c r="R105" s="23"/>
       <c r="S105" s="23"/>
     </row>
     <row r="106" ht="6.0" customHeight="1">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="30"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="33"/>
-      <c r="N106" s="30"/>
-      <c r="O106" s="30"/>
-      <c r="P106" s="31"/>
-      <c r="Q106" s="33"/>
-      <c r="R106" s="30"/>
-      <c r="S106" s="30"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="30"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
     </row>
     <row r="107" ht="12.0" customHeight="1">
       <c r="A107" s="22" t="s">
@@ -4088,57 +4113,57 @@
       <c r="A111" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B111" s="28" t="str">
+      <c r="B111" s="23">
         <f t="shared" ref="B111:C111" si="36">(B108+B109)+B110</f>
         <v>13</v>
       </c>
-      <c r="C111" s="28" t="str">
+      <c r="C111" s="23">
         <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="D111" s="24"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="28" t="str">
+      <c r="E111" s="28"/>
+      <c r="F111" s="23">
         <f t="shared" ref="F111:G111" si="37">(F108+F109)+F110</f>
         <v>18</v>
       </c>
-      <c r="G111" s="28" t="str">
+      <c r="G111" s="23">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="H111" s="24"/>
-      <c r="I111" s="29"/>
+      <c r="I111" s="28"/>
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
       <c r="L111" s="24"/>
-      <c r="M111" s="29"/>
+      <c r="M111" s="28"/>
       <c r="N111" s="23"/>
       <c r="O111" s="23"/>
       <c r="P111" s="24"/>
-      <c r="Q111" s="29"/>
+      <c r="Q111" s="28"/>
       <c r="R111" s="23"/>
       <c r="S111" s="23"/>
     </row>
     <row r="112" ht="6.0" customHeight="1">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="30"/>
-      <c r="K112" s="30"/>
-      <c r="L112" s="31"/>
-      <c r="M112" s="33"/>
-      <c r="N112" s="30"/>
-      <c r="O112" s="30"/>
-      <c r="P112" s="31"/>
-      <c r="Q112" s="33"/>
-      <c r="R112" s="30"/>
-      <c r="S112" s="30"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="30"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="30"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
     </row>
     <row r="113" ht="12.0" customHeight="1">
       <c r="A113" s="22" t="s">
@@ -4288,26 +4313,26 @@
       <c r="A117" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="28" t="str">
+      <c r="B117" s="23">
         <f t="shared" ref="B117:C117" si="38">(B114+B115)+B116</f>
         <v>16</v>
       </c>
-      <c r="C117" s="28" t="str">
+      <c r="C117" s="23">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="D117" s="24"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="28" t="str">
+      <c r="E117" s="28"/>
+      <c r="F117" s="23">
         <f t="shared" ref="F117:G117" si="39">(F114+F115)+F116</f>
         <v>19</v>
       </c>
-      <c r="G117" s="28" t="str">
+      <c r="G117" s="23">
         <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="H117" s="24"/>
-      <c r="I117" s="29"/>
+      <c r="I117" s="28"/>
       <c r="J117" s="27">
         <v>13.0</v>
       </c>
@@ -4315,34 +4340,34 @@
         <v>11.0</v>
       </c>
       <c r="L117" s="24"/>
-      <c r="M117" s="29"/>
+      <c r="M117" s="28"/>
       <c r="N117" s="23"/>
       <c r="O117" s="23"/>
       <c r="P117" s="24"/>
-      <c r="Q117" s="29"/>
+      <c r="Q117" s="28"/>
       <c r="R117" s="23"/>
       <c r="S117" s="23"/>
     </row>
     <row r="118" ht="6.0" customHeight="1">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="30"/>
-      <c r="K118" s="30"/>
-      <c r="L118" s="31"/>
-      <c r="M118" s="33"/>
-      <c r="N118" s="30"/>
-      <c r="O118" s="30"/>
-      <c r="P118" s="31"/>
-      <c r="Q118" s="33"/>
-      <c r="R118" s="30"/>
-      <c r="S118" s="30"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="30"/>
+      <c r="M118" s="32"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="30"/>
+      <c r="Q118" s="32"/>
+      <c r="R118" s="29"/>
+      <c r="S118" s="29"/>
     </row>
     <row r="119" ht="12.0" customHeight="1">
       <c r="A119" s="22" t="s">
@@ -4474,57 +4499,57 @@
       <c r="A123" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B123" s="28" t="str">
+      <c r="B123" s="23">
         <f t="shared" ref="B123:C123" si="40">(B120+B121)+B122</f>
         <v>15</v>
       </c>
-      <c r="C123" s="28" t="str">
+      <c r="C123" s="23">
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="D123" s="24"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="28" t="str">
+      <c r="E123" s="28"/>
+      <c r="F123" s="23">
         <f t="shared" ref="F123:G123" si="41">(F120+F121)+F122</f>
         <v>18</v>
       </c>
-      <c r="G123" s="28" t="str">
+      <c r="G123" s="23">
         <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="H123" s="24"/>
-      <c r="I123" s="29"/>
+      <c r="I123" s="28"/>
       <c r="J123" s="23"/>
       <c r="K123" s="23"/>
       <c r="L123" s="24"/>
-      <c r="M123" s="29"/>
+      <c r="M123" s="28"/>
       <c r="N123" s="23"/>
       <c r="O123" s="23"/>
       <c r="P123" s="24"/>
-      <c r="Q123" s="29"/>
+      <c r="Q123" s="28"/>
       <c r="R123" s="23"/>
       <c r="S123" s="23"/>
     </row>
     <row r="124" ht="6.0" customHeight="1">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="30"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="30"/>
-      <c r="K124" s="30"/>
-      <c r="L124" s="31"/>
-      <c r="M124" s="33"/>
-      <c r="N124" s="30"/>
-      <c r="O124" s="30"/>
-      <c r="P124" s="31"/>
-      <c r="Q124" s="33"/>
-      <c r="R124" s="30"/>
-      <c r="S124" s="30"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="30"/>
+      <c r="M124" s="32"/>
+      <c r="N124" s="29"/>
+      <c r="O124" s="29"/>
+      <c r="P124" s="30"/>
+      <c r="Q124" s="32"/>
+      <c r="R124" s="29"/>
+      <c r="S124" s="29"/>
     </row>
     <row r="125" ht="12.0" customHeight="1">
       <c r="A125" s="22" t="s">
@@ -4656,57 +4681,57 @@
       <c r="A129" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B129" s="28" t="str">
+      <c r="B129" s="23">
         <f t="shared" ref="B129:C129" si="42">(B126+B127)+B128</f>
         <v>14</v>
       </c>
-      <c r="C129" s="28" t="str">
+      <c r="C129" s="23">
         <f t="shared" si="42"/>
         <v>6</v>
       </c>
       <c r="D129" s="24"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="28" t="str">
+      <c r="E129" s="28"/>
+      <c r="F129" s="23">
         <f t="shared" ref="F129:G129" si="43">(F126+F127)+F128</f>
         <v>9</v>
       </c>
-      <c r="G129" s="28" t="str">
+      <c r="G129" s="23">
         <f t="shared" si="43"/>
         <v>15</v>
       </c>
       <c r="H129" s="24"/>
-      <c r="I129" s="29"/>
+      <c r="I129" s="28"/>
       <c r="J129" s="23"/>
       <c r="K129" s="23"/>
       <c r="L129" s="24"/>
-      <c r="M129" s="29"/>
+      <c r="M129" s="28"/>
       <c r="N129" s="23"/>
       <c r="O129" s="23"/>
       <c r="P129" s="24"/>
-      <c r="Q129" s="29"/>
+      <c r="Q129" s="28"/>
       <c r="R129" s="23"/>
       <c r="S129" s="23"/>
     </row>
     <row r="130" ht="6.0" customHeight="1">
-      <c r="A130" s="30"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="33"/>
-      <c r="J130" s="30"/>
-      <c r="K130" s="30"/>
-      <c r="L130" s="31"/>
-      <c r="M130" s="33"/>
-      <c r="N130" s="30"/>
-      <c r="O130" s="30"/>
-      <c r="P130" s="31"/>
-      <c r="Q130" s="33"/>
-      <c r="R130" s="30"/>
-      <c r="S130" s="30"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="30"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="29"/>
+      <c r="O130" s="29"/>
+      <c r="P130" s="30"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="29"/>
+      <c r="S130" s="29"/>
     </row>
     <row r="131" ht="12.0" customHeight="1">
       <c r="A131" s="22" t="s">
@@ -4838,57 +4863,57 @@
       <c r="A135" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B135" s="28" t="str">
+      <c r="B135" s="23">
         <f t="shared" ref="B135:C135" si="44">(B132+B133)+B134</f>
         <v>16</v>
       </c>
-      <c r="C135" s="28" t="str">
+      <c r="C135" s="23">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="D135" s="24"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="28" t="str">
+      <c r="E135" s="28"/>
+      <c r="F135" s="23">
         <f t="shared" ref="F135:G135" si="45">(F132+F133)+F134</f>
         <v>20</v>
       </c>
-      <c r="G135" s="28" t="str">
+      <c r="G135" s="23">
         <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="H135" s="24"/>
-      <c r="I135" s="29"/>
+      <c r="I135" s="28"/>
       <c r="J135" s="23"/>
       <c r="K135" s="23"/>
       <c r="L135" s="24"/>
-      <c r="M135" s="29"/>
+      <c r="M135" s="28"/>
       <c r="N135" s="23"/>
       <c r="O135" s="23"/>
       <c r="P135" s="24"/>
-      <c r="Q135" s="29"/>
+      <c r="Q135" s="28"/>
       <c r="R135" s="23"/>
       <c r="S135" s="23"/>
     </row>
     <row r="136" ht="6.0" customHeight="1">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="30"/>
-      <c r="K136" s="30"/>
-      <c r="L136" s="31"/>
-      <c r="M136" s="33"/>
-      <c r="N136" s="30"/>
-      <c r="O136" s="30"/>
-      <c r="P136" s="31"/>
-      <c r="Q136" s="33"/>
-      <c r="R136" s="30"/>
-      <c r="S136" s="30"/>
+      <c r="A136" s="29"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="30"/>
+      <c r="M136" s="32"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="29"/>
+      <c r="P136" s="30"/>
+      <c r="Q136" s="32"/>
+      <c r="R136" s="29"/>
+      <c r="S136" s="29"/>
     </row>
     <row r="137" ht="12.0" customHeight="1">
       <c r="A137" s="22" t="s">
@@ -5020,57 +5045,57 @@
       <c r="A141" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B141" s="28" t="str">
+      <c r="B141" s="23">
         <f t="shared" ref="B141:C141" si="46">(B138+B139)+B140</f>
         <v>15</v>
       </c>
-      <c r="C141" s="28" t="str">
+      <c r="C141" s="23">
         <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="D141" s="24"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="28" t="str">
+      <c r="E141" s="28"/>
+      <c r="F141" s="23">
         <f t="shared" ref="F141:G141" si="47">(F138+F139)+F140</f>
         <v>19</v>
       </c>
-      <c r="G141" s="28" t="str">
+      <c r="G141" s="23">
         <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="H141" s="24"/>
-      <c r="I141" s="29"/>
+      <c r="I141" s="28"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
       <c r="L141" s="24"/>
-      <c r="M141" s="29"/>
+      <c r="M141" s="28"/>
       <c r="N141" s="23"/>
       <c r="O141" s="23"/>
       <c r="P141" s="24"/>
-      <c r="Q141" s="29"/>
+      <c r="Q141" s="28"/>
       <c r="R141" s="23"/>
       <c r="S141" s="23"/>
     </row>
     <row r="142" ht="6.0" customHeight="1">
-      <c r="A142" s="30"/>
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="31"/>
-      <c r="I142" s="33"/>
-      <c r="J142" s="30"/>
-      <c r="K142" s="30"/>
-      <c r="L142" s="31"/>
-      <c r="M142" s="33"/>
-      <c r="N142" s="30"/>
-      <c r="O142" s="30"/>
-      <c r="P142" s="31"/>
-      <c r="Q142" s="33"/>
-      <c r="R142" s="30"/>
-      <c r="S142" s="30"/>
+      <c r="A142" s="29"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="30"/>
+      <c r="M142" s="32"/>
+      <c r="N142" s="29"/>
+      <c r="O142" s="29"/>
+      <c r="P142" s="30"/>
+      <c r="Q142" s="32"/>
+      <c r="R142" s="29"/>
+      <c r="S142" s="29"/>
     </row>
     <row r="143" ht="25.5" customHeight="1">
       <c r="A143" s="22" t="s">
@@ -5220,63 +5245,63 @@
       <c r="A147" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="28" t="str">
+      <c r="B147" s="23">
         <f t="shared" ref="B147:C147" si="48">(B144+B145)+B146</f>
         <v>13</v>
       </c>
-      <c r="C147" s="28" t="str">
+      <c r="C147" s="23">
         <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="D147" s="24"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="28" t="str">
+      <c r="E147" s="28"/>
+      <c r="F147" s="23">
         <f t="shared" ref="F147:G147" si="49">(F144+F145)+F146</f>
         <v>20</v>
       </c>
-      <c r="G147" s="28" t="str">
+      <c r="G147" s="23">
         <f t="shared" si="49"/>
         <v>4</v>
       </c>
       <c r="H147" s="24"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="28" t="str">
+      <c r="I147" s="28"/>
+      <c r="J147" s="23">
         <f t="shared" ref="J147:K147" si="50">(J144+J145)+J146</f>
         <v>15</v>
       </c>
-      <c r="K147" s="28" t="str">
+      <c r="K147" s="23">
         <f t="shared" si="50"/>
         <v>9</v>
       </c>
       <c r="L147" s="24"/>
-      <c r="M147" s="29"/>
+      <c r="M147" s="28"/>
       <c r="N147" s="23"/>
       <c r="O147" s="23"/>
       <c r="P147" s="24"/>
-      <c r="Q147" s="29"/>
+      <c r="Q147" s="28"/>
       <c r="R147" s="23"/>
       <c r="S147" s="23"/>
     </row>
     <row r="148" ht="6.0" customHeight="1">
-      <c r="A148" s="30"/>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="30"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="31"/>
-      <c r="M148" s="33"/>
-      <c r="N148" s="30"/>
-      <c r="O148" s="30"/>
-      <c r="P148" s="31"/>
-      <c r="Q148" s="33"/>
-      <c r="R148" s="30"/>
-      <c r="S148" s="30"/>
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="30"/>
+      <c r="M148" s="32"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="30"/>
+      <c r="Q148" s="32"/>
+      <c r="R148" s="29"/>
+      <c r="S148" s="29"/>
     </row>
     <row r="149" ht="12.0" customHeight="1">
       <c r="A149" s="22" t="s">
@@ -5408,57 +5433,57 @@
       <c r="A153" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B153" s="28" t="str">
+      <c r="B153" s="23">
         <f t="shared" ref="B153:C153" si="51">(B150+B151)+B152</f>
         <v>12</v>
       </c>
-      <c r="C153" s="28" t="str">
+      <c r="C153" s="23">
         <f t="shared" si="51"/>
         <v>8</v>
       </c>
       <c r="D153" s="24"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="28" t="str">
+      <c r="E153" s="28"/>
+      <c r="F153" s="23">
         <f t="shared" ref="F153:G153" si="52">(F150+F151)+F152</f>
         <v>20</v>
       </c>
-      <c r="G153" s="28" t="str">
+      <c r="G153" s="23">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="H153" s="24"/>
-      <c r="I153" s="29"/>
+      <c r="I153" s="28"/>
       <c r="J153" s="23"/>
       <c r="K153" s="23"/>
       <c r="L153" s="24"/>
-      <c r="M153" s="29"/>
+      <c r="M153" s="28"/>
       <c r="N153" s="23"/>
       <c r="O153" s="23"/>
       <c r="P153" s="24"/>
-      <c r="Q153" s="29"/>
+      <c r="Q153" s="28"/>
       <c r="R153" s="23"/>
       <c r="S153" s="23"/>
     </row>
     <row r="154" ht="6.0" customHeight="1">
-      <c r="A154" s="30"/>
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="30"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="31"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="30"/>
-      <c r="K154" s="30"/>
-      <c r="L154" s="31"/>
-      <c r="M154" s="33"/>
-      <c r="N154" s="30"/>
-      <c r="O154" s="30"/>
-      <c r="P154" s="31"/>
-      <c r="Q154" s="33"/>
-      <c r="R154" s="30"/>
-      <c r="S154" s="30"/>
+      <c r="A154" s="29"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="30"/>
+      <c r="M154" s="32"/>
+      <c r="N154" s="29"/>
+      <c r="O154" s="29"/>
+      <c r="P154" s="30"/>
+      <c r="Q154" s="32"/>
+      <c r="R154" s="29"/>
+      <c r="S154" s="29"/>
     </row>
     <row r="155" ht="12.0" customHeight="1">
       <c r="A155" s="22" t="s">
@@ -5590,57 +5615,57 @@
       <c r="A159" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B159" s="28" t="str">
+      <c r="B159" s="23">
         <f t="shared" ref="B159:C159" si="53">(B156+B157)+B158</f>
         <v>16</v>
       </c>
-      <c r="C159" s="28" t="str">
+      <c r="C159" s="23">
         <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="D159" s="24"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="28" t="str">
+      <c r="E159" s="28"/>
+      <c r="F159" s="23">
         <f t="shared" ref="F159:G159" si="54">(F156+F157)+F158</f>
         <v>11</v>
       </c>
-      <c r="G159" s="28" t="str">
+      <c r="G159" s="23">
         <f t="shared" si="54"/>
         <v>13</v>
       </c>
       <c r="H159" s="24"/>
-      <c r="I159" s="29"/>
+      <c r="I159" s="28"/>
       <c r="J159" s="23"/>
       <c r="K159" s="23"/>
       <c r="L159" s="24"/>
-      <c r="M159" s="29"/>
+      <c r="M159" s="28"/>
       <c r="N159" s="23"/>
       <c r="O159" s="23"/>
       <c r="P159" s="24"/>
-      <c r="Q159" s="29"/>
+      <c r="Q159" s="28"/>
       <c r="R159" s="23"/>
       <c r="S159" s="23"/>
     </row>
     <row r="160" ht="6.0" customHeight="1">
-      <c r="A160" s="30"/>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="31"/>
-      <c r="I160" s="33"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="30"/>
-      <c r="L160" s="31"/>
-      <c r="M160" s="33"/>
-      <c r="N160" s="30"/>
-      <c r="O160" s="30"/>
-      <c r="P160" s="31"/>
-      <c r="Q160" s="33"/>
-      <c r="R160" s="30"/>
-      <c r="S160" s="30"/>
+      <c r="A160" s="29"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="32"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="30"/>
+      <c r="M160" s="32"/>
+      <c r="N160" s="29"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="30"/>
+      <c r="Q160" s="32"/>
+      <c r="R160" s="29"/>
+      <c r="S160" s="29"/>
     </row>
     <row r="161" ht="12.0" customHeight="1">
       <c r="A161" s="22" t="s">
@@ -5808,69 +5833,69 @@
       <c r="A165" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B165" s="28" t="str">
+      <c r="B165" s="23">
         <f t="shared" ref="B165:C165" si="55">(B162+B163)+B164</f>
         <v>11</v>
       </c>
-      <c r="C165" s="28" t="str">
+      <c r="C165" s="23">
         <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="D165" s="24"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="28" t="str">
+      <c r="E165" s="28"/>
+      <c r="F165" s="23">
         <f t="shared" ref="F165:G165" si="56">(F162+F163)+F164</f>
         <v>15</v>
       </c>
-      <c r="G165" s="28" t="str">
+      <c r="G165" s="23">
         <f t="shared" si="56"/>
         <v>9</v>
       </c>
       <c r="H165" s="24"/>
-      <c r="I165" s="29"/>
-      <c r="J165" s="28" t="str">
+      <c r="I165" s="28"/>
+      <c r="J165" s="23">
         <f t="shared" ref="J165:K165" si="57">(J162+J163)+J164</f>
         <v>16</v>
       </c>
-      <c r="K165" s="28" t="str">
+      <c r="K165" s="23">
         <f t="shared" si="57"/>
         <v>8</v>
       </c>
       <c r="L165" s="24"/>
-      <c r="M165" s="29"/>
-      <c r="N165" s="28" t="str">
+      <c r="M165" s="28"/>
+      <c r="N165" s="23">
         <f t="shared" ref="N165:O165" si="58">(N162+N163)+N164</f>
         <v>14</v>
       </c>
-      <c r="O165" s="28" t="str">
+      <c r="O165" s="23">
         <f t="shared" si="58"/>
         <v>10</v>
       </c>
       <c r="P165" s="24"/>
-      <c r="Q165" s="29"/>
+      <c r="Q165" s="28"/>
       <c r="R165" s="23"/>
       <c r="S165" s="23"/>
     </row>
     <row r="166" ht="6.0" customHeight="1">
-      <c r="A166" s="30"/>
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="30"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="31"/>
-      <c r="I166" s="33"/>
-      <c r="J166" s="30"/>
-      <c r="K166" s="30"/>
-      <c r="L166" s="31"/>
-      <c r="M166" s="33"/>
-      <c r="N166" s="30"/>
-      <c r="O166" s="30"/>
-      <c r="P166" s="31"/>
-      <c r="Q166" s="33"/>
-      <c r="R166" s="30"/>
-      <c r="S166" s="30"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="30"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="29"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="30"/>
+      <c r="M166" s="32"/>
+      <c r="N166" s="29"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="30"/>
+      <c r="Q166" s="32"/>
+      <c r="R166" s="29"/>
+      <c r="S166" s="29"/>
     </row>
     <row r="167" ht="12.0" customHeight="1">
       <c r="A167" s="22" t="s">
@@ -6002,57 +6027,57 @@
       <c r="A171" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="28" t="str">
+      <c r="B171" s="23">
         <f t="shared" ref="B171:C171" si="59">(B168+B169)+B170</f>
         <v>14</v>
       </c>
-      <c r="C171" s="28" t="str">
+      <c r="C171" s="23">
         <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="D171" s="24"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="28" t="str">
+      <c r="E171" s="28"/>
+      <c r="F171" s="23">
         <f t="shared" ref="F171:G171" si="60">(F168+F169)+F170</f>
         <v>21</v>
       </c>
-      <c r="G171" s="28" t="str">
+      <c r="G171" s="23">
         <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="H171" s="24"/>
-      <c r="I171" s="29"/>
+      <c r="I171" s="28"/>
       <c r="J171" s="23"/>
       <c r="K171" s="23"/>
       <c r="L171" s="24"/>
-      <c r="M171" s="29"/>
+      <c r="M171" s="28"/>
       <c r="N171" s="23"/>
       <c r="O171" s="23"/>
       <c r="P171" s="24"/>
-      <c r="Q171" s="29"/>
+      <c r="Q171" s="28"/>
       <c r="R171" s="23"/>
       <c r="S171" s="23"/>
     </row>
     <row r="172" ht="6.0" customHeight="1">
-      <c r="A172" s="30"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="31"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="30"/>
-      <c r="K172" s="30"/>
-      <c r="L172" s="31"/>
-      <c r="M172" s="33"/>
-      <c r="N172" s="30"/>
-      <c r="O172" s="30"/>
-      <c r="P172" s="31"/>
-      <c r="Q172" s="33"/>
-      <c r="R172" s="30"/>
-      <c r="S172" s="30"/>
+      <c r="A172" s="29"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="30"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="29"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="30"/>
+      <c r="M172" s="32"/>
+      <c r="N172" s="29"/>
+      <c r="O172" s="29"/>
+      <c r="P172" s="30"/>
+      <c r="Q172" s="32"/>
+      <c r="R172" s="29"/>
+      <c r="S172" s="29"/>
     </row>
     <row r="173" ht="25.5" customHeight="1">
       <c r="A173" s="22" t="s">
@@ -6238,51 +6263,51 @@
       <c r="A177" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B177" s="28" t="str">
+      <c r="B177" s="23">
         <f t="shared" ref="B177:C177" si="61">(B174+B175)+B176</f>
         <v>16</v>
       </c>
-      <c r="C177" s="28" t="str">
+      <c r="C177" s="23">
         <f t="shared" si="61"/>
         <v>4</v>
       </c>
       <c r="D177" s="24"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="28" t="str">
+      <c r="E177" s="28"/>
+      <c r="F177" s="23">
         <f t="shared" ref="F177:G177" si="62">(F174+F175)+F176</f>
         <v>20</v>
       </c>
-      <c r="G177" s="28" t="str">
+      <c r="G177" s="23">
         <f t="shared" si="62"/>
         <v>4</v>
       </c>
       <c r="H177" s="24"/>
-      <c r="I177" s="29"/>
-      <c r="J177" s="28" t="str">
+      <c r="I177" s="28"/>
+      <c r="J177" s="23">
         <f t="shared" ref="J177:K177" si="63">(J174+J175)+J176</f>
         <v>20</v>
       </c>
-      <c r="K177" s="28" t="str">
+      <c r="K177" s="23">
         <f t="shared" si="63"/>
         <v>4</v>
       </c>
       <c r="L177" s="24"/>
-      <c r="M177" s="29"/>
-      <c r="N177" s="28" t="str">
+      <c r="M177" s="28"/>
+      <c r="N177" s="23">
         <f t="shared" ref="N177:O177" si="64">(N174+N175)+N176</f>
         <v>8</v>
       </c>
-      <c r="O177" s="28" t="str">
+      <c r="O177" s="23">
         <f t="shared" si="64"/>
         <v>16</v>
       </c>
       <c r="P177" s="24"/>
-      <c r="Q177" s="29"/>
-      <c r="R177" s="28" t="str">
+      <c r="Q177" s="28"/>
+      <c r="R177" s="23">
         <f t="shared" ref="R177:S177" si="65">(R174+R175)+R176</f>
         <v>13</v>
       </c>
-      <c r="S177" s="28" t="str">
+      <c r="S177" s="23">
         <f t="shared" si="65"/>
         <v>11</v>
       </c>
@@ -6296,194 +6321,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="27.71"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="119.86"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="24.25"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="104.88"/>
+    <col customWidth="1" min="5" max="6" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>41766.0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
